--- a/Code/Results/Cases/Case_0_183/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_183/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8757813139534114</v>
+        <v>1.006090927296766</v>
       </c>
       <c r="D2">
-        <v>0.885791760826712</v>
+        <v>1.008736917786339</v>
       </c>
       <c r="E2">
-        <v>0.897065195548012</v>
+        <v>1.008722147100834</v>
       </c>
       <c r="F2">
-        <v>0.8445651984809768</v>
+        <v>1.004255285924022</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9024388679798181</v>
+        <v>1.011370418211365</v>
       </c>
       <c r="K2">
-        <v>0.899110372562379</v>
+        <v>1.011612260904118</v>
       </c>
       <c r="L2">
-        <v>0.9101728436944676</v>
+        <v>1.011597535032606</v>
       </c>
       <c r="M2">
-        <v>0.8587189657400681</v>
+        <v>1.00714429220932</v>
       </c>
       <c r="N2">
-        <v>0.967092534298774</v>
+        <v>1.007347764093004</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8944385519074765</v>
+        <v>1.008747479273434</v>
       </c>
       <c r="D3">
-        <v>0.9033930332535104</v>
+        <v>1.011303855525857</v>
       </c>
       <c r="E3">
-        <v>0.9130373275831132</v>
+        <v>1.011042418778869</v>
       </c>
       <c r="F3">
-        <v>0.8677596608903708</v>
+        <v>1.007591720365493</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9182883657701725</v>
+        <v>1.013648668426333</v>
       </c>
       <c r="K3">
-        <v>0.9154319408686906</v>
+        <v>1.013977948692831</v>
       </c>
       <c r="L3">
-        <v>0.92491872468248</v>
+        <v>1.013717244929004</v>
       </c>
       <c r="M3">
-        <v>0.8804200875861956</v>
+        <v>1.010276259819716</v>
       </c>
       <c r="N3">
-        <v>0.9730008277988103</v>
+        <v>1.008163843152681</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9055181817541597</v>
+        <v>1.010454205672261</v>
       </c>
       <c r="D4">
-        <v>0.9138582289558153</v>
+        <v>1.01295315082762</v>
       </c>
       <c r="E4">
-        <v>0.9225394459016685</v>
+        <v>1.012532685184043</v>
       </c>
       <c r="F4">
-        <v>0.8814737576165359</v>
+        <v>1.009736437635741</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9276918708148267</v>
+        <v>1.015110944212857</v>
       </c>
       <c r="K4">
-        <v>0.9251209556486512</v>
+        <v>1.015496830735572</v>
       </c>
       <c r="L4">
-        <v>0.933672326788047</v>
+        <v>1.015077481814617</v>
       </c>
       <c r="M4">
-        <v>0.8932499082610097</v>
+        <v>1.012288686452855</v>
       </c>
       <c r="N4">
-        <v>0.9765086501147789</v>
+        <v>1.008686106013879</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9099760414900755</v>
+        <v>1.011168864086609</v>
       </c>
       <c r="D5">
-        <v>0.9180714508014424</v>
+        <v>1.013643794106838</v>
       </c>
       <c r="E5">
-        <v>0.9263658303767944</v>
+        <v>1.013156603907739</v>
       </c>
       <c r="F5">
-        <v>0.8869809358341375</v>
+        <v>1.010634790494186</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9314730580382752</v>
+        <v>1.015722906349844</v>
       </c>
       <c r="K5">
-        <v>0.9290181903566592</v>
+        <v>1.016132598703524</v>
       </c>
       <c r="L5">
-        <v>0.9371930322820338</v>
+        <v>1.015646672322156</v>
       </c>
       <c r="M5">
-        <v>0.898401230933907</v>
+        <v>1.013131421759703</v>
       </c>
       <c r="N5">
-        <v>0.977919130882237</v>
+        <v>1.008904303239479</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9107137093106983</v>
+        <v>1.011288693616128</v>
       </c>
       <c r="D6">
-        <v>0.918768777532211</v>
+        <v>1.013759598832089</v>
       </c>
       <c r="E6">
-        <v>0.9269991736897374</v>
+        <v>1.013261212756075</v>
       </c>
       <c r="F6">
-        <v>0.8878917006945612</v>
+        <v>1.010785438287012</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9320986132564433</v>
+        <v>1.015825496594371</v>
       </c>
       <c r="K6">
-        <v>0.9296630161433498</v>
+        <v>1.016239186605167</v>
       </c>
       <c r="L6">
-        <v>0.9377755357463712</v>
+        <v>1.015742088224938</v>
       </c>
       <c r="M6">
-        <v>0.8992530903702428</v>
+        <v>1.013272730806825</v>
       </c>
       <c r="N6">
-        <v>0.9781524620959157</v>
+        <v>1.008940860364173</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.905578491808587</v>
+        <v>1.010463766062007</v>
       </c>
       <c r="D7">
-        <v>0.9139152195504743</v>
+        <v>1.012962389824795</v>
       </c>
       <c r="E7">
-        <v>0.9225912008449955</v>
+        <v>1.012541032099204</v>
       </c>
       <c r="F7">
-        <v>0.8815483022488696</v>
+        <v>1.00974845424076</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.927743035588578</v>
+        <v>1.015119132104623</v>
       </c>
       <c r="K7">
-        <v>0.9251736858067745</v>
+        <v>1.015505336686019</v>
       </c>
       <c r="L7">
-        <v>0.9337199638618189</v>
+        <v>1.015085097703791</v>
       </c>
       <c r="M7">
-        <v>0.893319639576582</v>
+        <v>1.012299959911009</v>
       </c>
       <c r="N7">
-        <v>0.9765277367347532</v>
+        <v>1.008689026894543</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.8823187308931415</v>
+        <v>1.00699130524273</v>
       </c>
       <c r="D8">
-        <v>0.8919560643951526</v>
+        <v>1.009606892739671</v>
       </c>
       <c r="E8">
-        <v>0.9026573975021208</v>
+        <v>1.009508635157861</v>
       </c>
       <c r="F8">
-        <v>0.8527084306926542</v>
+        <v>1.005385851280336</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.907994244731079</v>
+        <v>1.012142871873044</v>
       </c>
       <c r="K8">
-        <v>0.9048299779603874</v>
+        <v>1.01241425972983</v>
       </c>
       <c r="L8">
-        <v>0.9153400861146685</v>
+        <v>1.012316292585387</v>
       </c>
       <c r="M8">
-        <v>0.8663378570702076</v>
+        <v>1.008205750865688</v>
       </c>
       <c r="N8">
-        <v>0.9691624607038941</v>
+        <v>1.007624777058741</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.8310667399382832</v>
+        <v>1.000774926865739</v>
       </c>
       <c r="D9">
-        <v>0.8437243878717485</v>
+        <v>1.00360105765439</v>
       </c>
       <c r="E9">
-        <v>0.8589623778113993</v>
+        <v>1.004076946789064</v>
       </c>
       <c r="F9">
-        <v>0.7882637290538135</v>
+        <v>0.997584833785194</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.86441054823724</v>
+        <v>1.006803877021899</v>
       </c>
       <c r="K9">
-        <v>0.8599893987325625</v>
+        <v>1.006873078252644</v>
       </c>
       <c r="L9">
-        <v>0.8748497692129162</v>
+        <v>1.007347303589048</v>
       </c>
       <c r="M9">
-        <v>0.8060737080976991</v>
+        <v>1.000878039125616</v>
       </c>
       <c r="N9">
-        <v>0.9529782721335239</v>
+        <v>1.005703893909823</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7823511182023766</v>
+        <v>0.9965598517892567</v>
       </c>
       <c r="D10">
-        <v>0.7980982023018662</v>
+        <v>0.9995295930248154</v>
       </c>
       <c r="E10">
-        <v>0.8178044437083332</v>
+        <v>1.000391984513437</v>
       </c>
       <c r="F10">
-        <v>0.7251468653194479</v>
+        <v>0.9923007265657137</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8229644190365634</v>
+        <v>1.00317638050384</v>
       </c>
       <c r="K10">
-        <v>0.8174071701050891</v>
+        <v>1.003110765348437</v>
       </c>
       <c r="L10">
-        <v>0.8364824721124438</v>
+        <v>1.003969824468227</v>
       </c>
       <c r="M10">
-        <v>0.747222000851561</v>
+        <v>0.9959100850204848</v>
       </c>
       <c r="N10">
-        <v>0.937775371837076</v>
+        <v>1.004391033268429</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7519923966843121</v>
+        <v>0.9947166684116088</v>
       </c>
       <c r="D11">
-        <v>0.7697815502640746</v>
+        <v>0.9977494253751157</v>
       </c>
       <c r="E11">
-        <v>0.7923835285410404</v>
+        <v>0.9987801794014731</v>
       </c>
       <c r="F11">
-        <v>0.6843119709817321</v>
+        <v>0.9899912410929472</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.7971422160443714</v>
+        <v>1.001588398655513</v>
       </c>
       <c r="K11">
-        <v>0.7909047798934448</v>
+        <v>1.001464374056901</v>
       </c>
       <c r="L11">
-        <v>0.8126734278563023</v>
+        <v>1.002490978865181</v>
       </c>
       <c r="M11">
-        <v>0.7093227569701424</v>
+        <v>0.9937377287925286</v>
       </c>
       <c r="N11">
-        <v>0.9284392232645921</v>
+        <v>1.003814516701121</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7371817649060891</v>
+        <v>0.9940292131350527</v>
       </c>
       <c r="D12">
-        <v>0.7560000694505196</v>
+        <v>0.9970855071619035</v>
       </c>
       <c r="E12">
-        <v>0.780053885405153</v>
+        <v>0.9981789596307084</v>
       </c>
       <c r="F12">
-        <v>0.6637775857013763</v>
+        <v>0.9891300330018744</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.7845445183736824</v>
+        <v>1.000995865763107</v>
       </c>
       <c r="K12">
-        <v>0.7779837341016244</v>
+        <v>1.000850138015531</v>
       </c>
       <c r="L12">
-        <v>0.8010914884493899</v>
+        <v>1.00193912301098</v>
       </c>
       <c r="M12">
-        <v>0.6903405142673117</v>
+        <v>0.9929274990880825</v>
       </c>
       <c r="N12">
-        <v>0.9239307596133955</v>
+        <v>1.003599131600842</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7406265048553679</v>
+        <v>0.9941768037503463</v>
       </c>
       <c r="D13">
-        <v>0.7592035590412447</v>
+        <v>0.9972280430177404</v>
       </c>
       <c r="E13">
-        <v>0.7829171566109723</v>
+        <v>0.9983080390005992</v>
       </c>
       <c r="F13">
-        <v>0.6685967242159944</v>
+        <v>0.9893149195511527</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.7874747610404945</v>
+        <v>1.001123089153445</v>
       </c>
       <c r="K13">
-        <v>0.7809886458982815</v>
+        <v>1.000982017172393</v>
       </c>
       <c r="L13">
-        <v>0.8037832638252562</v>
+        <v>1.002057614631271</v>
       </c>
       <c r="M13">
-        <v>0.694790057292231</v>
+        <v>0.9931014485550306</v>
       </c>
       <c r="N13">
-        <v>0.9249764885338196</v>
+        <v>1.00364538914935</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7508732298819193</v>
+        <v>0.9946599011945081</v>
       </c>
       <c r="D14">
-        <v>0.7687394070675293</v>
+        <v>0.9976946010513851</v>
       </c>
       <c r="E14">
-        <v>0.7914501248029659</v>
+        <v>0.9987305344040769</v>
       </c>
       <c r="F14">
-        <v>0.6827763674311499</v>
+        <v>0.989920122794787</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.7961903236861676</v>
+        <v>1.001539475043138</v>
       </c>
       <c r="K14">
-        <v>0.7899282483592325</v>
+        <v>1.001413656617626</v>
       </c>
       <c r="L14">
-        <v>0.8117974505063719</v>
+        <v>1.00244541475185</v>
       </c>
       <c r="M14">
-        <v>0.7079012522595804</v>
+        <v>0.9936708234728931</v>
       </c>
       <c r="N14">
-        <v>0.9280974308681627</v>
+        <v>1.003796738418048</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.756571756513102</v>
+        <v>0.9949571772351183</v>
       </c>
       <c r="D15">
-        <v>0.7740470322008699</v>
+        <v>0.9979817040314933</v>
       </c>
       <c r="E15">
-        <v>0.7962056444555841</v>
+        <v>0.998990510600829</v>
       </c>
       <c r="F15">
-        <v>0.6905702999269515</v>
+        <v>0.990292558607223</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8010371038829305</v>
+        <v>1.001795665392203</v>
       </c>
       <c r="K15">
-        <v>0.7949008211397289</v>
+        <v>1.001679244150521</v>
       </c>
       <c r="L15">
-        <v>0.81625904114904</v>
+        <v>1.002684011100384</v>
       </c>
       <c r="M15">
-        <v>0.7151191361554183</v>
+        <v>0.9940211901285849</v>
       </c>
       <c r="N15">
-        <v>0.929839594307775</v>
+        <v>1.003889824213849</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.7840687453313833</v>
+        <v>0.9966817889603924</v>
       </c>
       <c r="D16">
-        <v>0.799703021424736</v>
+        <v>0.999647366016141</v>
       </c>
       <c r="E16">
-        <v>0.8192482909419341</v>
+        <v>1.000498605863378</v>
       </c>
       <c r="F16">
-        <v>0.7274161996684303</v>
+        <v>0.9924535359026349</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8244255341825368</v>
+        <v>1.003281398206677</v>
       </c>
       <c r="K16">
-        <v>0.8189074220332787</v>
+        <v>1.003219658601092</v>
       </c>
       <c r="L16">
-        <v>0.8378321177394318</v>
+        <v>1.004067618246911</v>
       </c>
       <c r="M16">
-        <v>0.7493330676371988</v>
+        <v>0.9960537990814301</v>
       </c>
       <c r="N16">
-        <v>0.9383071027146768</v>
+        <v>1.004429122571202</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.7982093315923092</v>
+        <v>0.9977586915948781</v>
       </c>
       <c r="D17">
-        <v>0.8129258725704325</v>
+        <v>1.000687517331306</v>
       </c>
       <c r="E17">
-        <v>0.8311562755767269</v>
+        <v>1.001440195758832</v>
       </c>
       <c r="F17">
-        <v>0.7459611660130181</v>
+        <v>0.9938032226934108</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8364551402882847</v>
+        <v>1.004208674963362</v>
       </c>
       <c r="K17">
-        <v>0.8312617897050417</v>
+        <v>1.004181225239359</v>
       </c>
       <c r="L17">
-        <v>0.8489527981310262</v>
+        <v>1.004931074105202</v>
       </c>
       <c r="M17">
-        <v>0.766600481637133</v>
+        <v>0.9973230313618571</v>
       </c>
       <c r="N17">
-        <v>0.9426976353724962</v>
+        <v>1.004765234606173</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8057308878511398</v>
+        <v>0.9983850985791192</v>
       </c>
       <c r="D18">
-        <v>0.8199671568914836</v>
+        <v>1.0012925677505</v>
       </c>
       <c r="E18">
-        <v>0.8375052496932682</v>
+        <v>1.001987853182728</v>
       </c>
       <c r="F18">
-        <v>0.7557342012921792</v>
+        <v>0.9945884141047743</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8428543422638021</v>
+        <v>1.00474788172371</v>
       </c>
       <c r="K18">
-        <v>0.8378355859572405</v>
+        <v>1.004740429677373</v>
       </c>
       <c r="L18">
-        <v>0.8548745358827879</v>
+        <v>1.005433139341394</v>
       </c>
       <c r="M18">
-        <v>0.7757104817171189</v>
+        <v>0.9980613169681083</v>
       </c>
       <c r="N18">
-        <v>0.9450419298564079</v>
+        <v>1.004960509703678</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8081938951064681</v>
+        <v>0.9985983965555357</v>
       </c>
       <c r="D19">
-        <v>0.8222740683221468</v>
+        <v>1.001498597077151</v>
       </c>
       <c r="E19">
-        <v>0.8395864600297535</v>
+        <v>1.002174328996302</v>
       </c>
       <c r="F19">
-        <v>0.7589219421920752</v>
+        <v>0.9948557992536934</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.8449498807445815</v>
+        <v>1.00493145885666</v>
       </c>
       <c r="K19">
-        <v>0.8399885757032994</v>
+        <v>1.004930825056835</v>
       </c>
       <c r="L19">
-        <v>0.8568145772955337</v>
+        <v>1.005604066228444</v>
       </c>
       <c r="M19">
-        <v>0.7786833180192548</v>
+        <v>0.9983127119490669</v>
       </c>
       <c r="N19">
-        <v>0.9458108527275307</v>
+        <v>1.005026963285529</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.7967730429091952</v>
+        <v>0.9976433300527123</v>
       </c>
       <c r="D20">
-        <v>0.8115819131805933</v>
+        <v>1.000576090560031</v>
       </c>
       <c r="E20">
-        <v>0.8299450580168448</v>
+        <v>1.001339333670625</v>
       </c>
       <c r="F20">
-        <v>0.744088091593993</v>
+        <v>0.993658627964647</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8352332076957628</v>
+        <v>1.004109359115974</v>
       </c>
       <c r="K20">
-        <v>0.8300066629667453</v>
+        <v>1.004078230742143</v>
       </c>
       <c r="L20">
-        <v>0.847822499538461</v>
+        <v>1.004838596883237</v>
       </c>
       <c r="M20">
-        <v>0.7648552420690896</v>
+        <v>0.9971870663168665</v>
       </c>
       <c r="N20">
-        <v>0.9422506585218809</v>
+        <v>1.004729253196774</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7479988399086656</v>
+        <v>0.9945177196130314</v>
       </c>
       <c r="D21">
-        <v>0.7660634014145509</v>
+        <v>0.9975572862761313</v>
       </c>
       <c r="E21">
-        <v>0.789054103600516</v>
+        <v>0.9986061904447127</v>
       </c>
       <c r="F21">
-        <v>0.6788209967640496</v>
+        <v>0.9897419995063174</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.7937455271126397</v>
+        <v>1.001416934683185</v>
       </c>
       <c r="K21">
-        <v>0.7874203204629433</v>
+        <v>1.001286624685652</v>
       </c>
       <c r="L21">
-        <v>0.8095482382183661</v>
+        <v>1.002331288293003</v>
       </c>
       <c r="M21">
-        <v>0.704241182338052</v>
+        <v>0.9935032494993649</v>
       </c>
       <c r="N21">
-        <v>0.9272204143238049</v>
+        <v>1.003752204366218</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7479988399086656</v>
+        <v>0.9925361831080421</v>
       </c>
       <c r="D22">
-        <v>0.7660634014145509</v>
+        <v>0.9956436591728185</v>
       </c>
       <c r="E22">
-        <v>0.789054103600516</v>
+        <v>0.9968731071297999</v>
       </c>
       <c r="F22">
-        <v>0.6788209967640496</v>
+        <v>0.9872599324566337</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.7937455271126397</v>
+        <v>0.9997085132618067</v>
       </c>
       <c r="K22">
-        <v>0.7874203204629433</v>
+        <v>0.9995158005207417</v>
       </c>
       <c r="L22">
-        <v>0.8095482382183661</v>
+        <v>1.000740064360187</v>
       </c>
       <c r="M22">
-        <v>0.704241182338052</v>
+        <v>0.9911678100289042</v>
       </c>
       <c r="N22">
-        <v>0.9272204143238049</v>
+        <v>1.003130696647749</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7479988399086656</v>
+        <v>0.9935882184135094</v>
       </c>
       <c r="D23">
-        <v>0.7660634014145509</v>
+        <v>0.9966596209353727</v>
       </c>
       <c r="E23">
-        <v>0.789054103600516</v>
+        <v>0.9977932668817237</v>
       </c>
       <c r="F23">
-        <v>0.6788209967640496</v>
+        <v>0.9885776228259336</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.7937455271126397</v>
+        <v>1.000615689345495</v>
       </c>
       <c r="K23">
-        <v>0.7874203204629433</v>
+        <v>1.000456062375759</v>
       </c>
       <c r="L23">
-        <v>0.8095482382183661</v>
+        <v>1.001585032801825</v>
       </c>
       <c r="M23">
-        <v>0.704241182338052</v>
+        <v>0.9924077441135356</v>
       </c>
       <c r="N23">
-        <v>0.9272204143238049</v>
+        <v>1.003460863377317</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.7479988399086656</v>
+        <v>0.9976954623140011</v>
       </c>
       <c r="D24">
-        <v>0.7660634014145509</v>
+        <v>1.000626444621296</v>
       </c>
       <c r="E24">
-        <v>0.789054103600516</v>
+        <v>1.001384913709678</v>
       </c>
       <c r="F24">
-        <v>0.6788209967640496</v>
+        <v>0.993723970449555</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.7937455271126397</v>
+        <v>1.00415424079048</v>
       </c>
       <c r="K24">
-        <v>0.7874203204629433</v>
+        <v>1.004124774649397</v>
       </c>
       <c r="L24">
-        <v>0.8095482382183661</v>
+        <v>1.004880388217769</v>
       </c>
       <c r="M24">
-        <v>0.704241182338052</v>
+        <v>0.9972485093517661</v>
       </c>
       <c r="N24">
-        <v>0.9272204143238049</v>
+        <v>1.004745514034718</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.7479988399086656</v>
+        <v>1.002394095298738</v>
       </c>
       <c r="D25">
-        <v>0.7660634014145509</v>
+        <v>1.005165242897434</v>
       </c>
       <c r="E25">
-        <v>0.789054103600516</v>
+        <v>1.00549208066899</v>
       </c>
       <c r="F25">
-        <v>0.6788209967640496</v>
+        <v>0.9996157571292116</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.7937455271126397</v>
+        <v>1.008195799769047</v>
       </c>
       <c r="K25">
-        <v>0.7874203204629433</v>
+        <v>1.008317266850159</v>
       </c>
       <c r="L25">
-        <v>0.8095482382183661</v>
+        <v>1.008643008013573</v>
       </c>
       <c r="M25">
-        <v>0.704241182338052</v>
+        <v>1.002786521031373</v>
       </c>
       <c r="N25">
-        <v>0.9272204143238049</v>
+        <v>1.006206052205763</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_183/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_183/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.006090927296766</v>
+        <v>0.8757813139534104</v>
       </c>
       <c r="D2">
-        <v>1.008736917786339</v>
+        <v>0.8857917608267106</v>
       </c>
       <c r="E2">
-        <v>1.008722147100834</v>
+        <v>0.897065195548011</v>
       </c>
       <c r="F2">
-        <v>1.004255285924022</v>
+        <v>0.8445651984809757</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.011370418211365</v>
+        <v>0.902438867979817</v>
       </c>
       <c r="K2">
-        <v>1.011612260904118</v>
+        <v>0.8991103725623779</v>
       </c>
       <c r="L2">
-        <v>1.011597535032606</v>
+        <v>0.9101728436944666</v>
       </c>
       <c r="M2">
-        <v>1.00714429220932</v>
+        <v>0.8587189657400672</v>
       </c>
       <c r="N2">
-        <v>1.007347764093004</v>
+        <v>0.9670925342987735</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.008747479273434</v>
+        <v>0.8944385519074778</v>
       </c>
       <c r="D3">
-        <v>1.011303855525857</v>
+        <v>0.9033930332535118</v>
       </c>
       <c r="E3">
-        <v>1.011042418778869</v>
+        <v>0.9130373275831146</v>
       </c>
       <c r="F3">
-        <v>1.007591720365493</v>
+        <v>0.8677596608903718</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.013648668426333</v>
+        <v>0.918288365770174</v>
       </c>
       <c r="K3">
-        <v>1.013977948692831</v>
+        <v>0.9154319408686921</v>
       </c>
       <c r="L3">
-        <v>1.013717244929004</v>
+        <v>0.9249187246824816</v>
       </c>
       <c r="M3">
-        <v>1.010276259819716</v>
+        <v>0.8804200875861969</v>
       </c>
       <c r="N3">
-        <v>1.008163843152681</v>
+        <v>0.9730008277988106</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.010454205672261</v>
+        <v>0.9055181817541598</v>
       </c>
       <c r="D4">
-        <v>1.01295315082762</v>
+        <v>0.9138582289558153</v>
       </c>
       <c r="E4">
-        <v>1.012532685184043</v>
+        <v>0.9225394459016683</v>
       </c>
       <c r="F4">
-        <v>1.009736437635741</v>
+        <v>0.8814737576165357</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.015110944212857</v>
+        <v>0.9276918708148264</v>
       </c>
       <c r="K4">
-        <v>1.015496830735572</v>
+        <v>0.9251209556486509</v>
       </c>
       <c r="L4">
-        <v>1.015077481814617</v>
+        <v>0.9336723267880467</v>
       </c>
       <c r="M4">
-        <v>1.012288686452855</v>
+        <v>0.8932499082610094</v>
       </c>
       <c r="N4">
-        <v>1.008686106013879</v>
+        <v>0.9765086501147789</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.011168864086609</v>
+        <v>0.9099760414900738</v>
       </c>
       <c r="D5">
-        <v>1.013643794106838</v>
+        <v>0.9180714508014406</v>
       </c>
       <c r="E5">
-        <v>1.013156603907739</v>
+        <v>0.9263658303767927</v>
       </c>
       <c r="F5">
-        <v>1.010634790494186</v>
+        <v>0.8869809358341355</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.015722906349844</v>
+        <v>0.9314730580382733</v>
       </c>
       <c r="K5">
-        <v>1.016132598703524</v>
+        <v>0.9290181903566574</v>
       </c>
       <c r="L5">
-        <v>1.015646672322156</v>
+        <v>0.9371930322820322</v>
       </c>
       <c r="M5">
-        <v>1.013131421759703</v>
+        <v>0.8984012309339049</v>
       </c>
       <c r="N5">
-        <v>1.008904303239479</v>
+        <v>0.9779191308822365</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.011288693616128</v>
+        <v>0.9107137093106983</v>
       </c>
       <c r="D6">
-        <v>1.013759598832089</v>
+        <v>0.9187687775322106</v>
       </c>
       <c r="E6">
-        <v>1.013261212756075</v>
+        <v>0.9269991736897373</v>
       </c>
       <c r="F6">
-        <v>1.010785438287012</v>
+        <v>0.8878917006945608</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.015825496594371</v>
+        <v>0.9320986132564431</v>
       </c>
       <c r="K6">
-        <v>1.016239186605167</v>
+        <v>0.9296630161433497</v>
       </c>
       <c r="L6">
-        <v>1.015742088224938</v>
+        <v>0.937775535746371</v>
       </c>
       <c r="M6">
-        <v>1.013272730806825</v>
+        <v>0.8992530903702424</v>
       </c>
       <c r="N6">
-        <v>1.008940860364173</v>
+        <v>0.9781524620959157</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.010463766062007</v>
+        <v>0.9055784918085852</v>
       </c>
       <c r="D7">
-        <v>1.012962389824795</v>
+        <v>0.9139152195504726</v>
       </c>
       <c r="E7">
-        <v>1.012541032099204</v>
+        <v>0.9225912008449938</v>
       </c>
       <c r="F7">
-        <v>1.00974845424076</v>
+        <v>0.8815483022488679</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.015119132104623</v>
+        <v>0.9277430355885762</v>
       </c>
       <c r="K7">
-        <v>1.015505336686019</v>
+        <v>0.9251736858067725</v>
       </c>
       <c r="L7">
-        <v>1.015085097703791</v>
+        <v>0.9337199638618171</v>
       </c>
       <c r="M7">
-        <v>1.012299959911009</v>
+        <v>0.8933196395765806</v>
       </c>
       <c r="N7">
-        <v>1.008689026894543</v>
+        <v>0.9765277367347528</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00699130524273</v>
+        <v>0.8823187308931415</v>
       </c>
       <c r="D8">
-        <v>1.009606892739671</v>
+        <v>0.8919560643951523</v>
       </c>
       <c r="E8">
-        <v>1.009508635157861</v>
+        <v>0.9026573975021206</v>
       </c>
       <c r="F8">
-        <v>1.005385851280336</v>
+        <v>0.8527084306926538</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.012142871873044</v>
+        <v>0.907994244731079</v>
       </c>
       <c r="K8">
-        <v>1.01241425972983</v>
+        <v>0.9048299779603871</v>
       </c>
       <c r="L8">
-        <v>1.012316292585387</v>
+        <v>0.9153400861146683</v>
       </c>
       <c r="M8">
-        <v>1.008205750865688</v>
+        <v>0.8663378570702073</v>
       </c>
       <c r="N8">
-        <v>1.007624777058741</v>
+        <v>0.9691624607038942</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000774926865739</v>
+        <v>0.8310667399382849</v>
       </c>
       <c r="D9">
-        <v>1.00360105765439</v>
+        <v>0.8437243878717504</v>
       </c>
       <c r="E9">
-        <v>1.004076946789064</v>
+        <v>0.8589623778114007</v>
       </c>
       <c r="F9">
-        <v>0.997584833785194</v>
+        <v>0.7882637290538156</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.006803877021899</v>
+        <v>0.8644105482372418</v>
       </c>
       <c r="K9">
-        <v>1.006873078252644</v>
+        <v>0.8599893987325644</v>
       </c>
       <c r="L9">
-        <v>1.007347303589048</v>
+        <v>0.8748497692129178</v>
       </c>
       <c r="M9">
-        <v>1.000878039125616</v>
+        <v>0.806073708097701</v>
       </c>
       <c r="N9">
-        <v>1.005703893909823</v>
+        <v>0.9529782721335246</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9965598517892567</v>
+        <v>0.7823511182023766</v>
       </c>
       <c r="D10">
-        <v>0.9995295930248154</v>
+        <v>0.7980982023018665</v>
       </c>
       <c r="E10">
-        <v>1.000391984513437</v>
+        <v>0.8178044437083329</v>
       </c>
       <c r="F10">
-        <v>0.9923007265657137</v>
+        <v>0.7251468653194479</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.00317638050384</v>
+        <v>0.8229644190365633</v>
       </c>
       <c r="K10">
-        <v>1.003110765348437</v>
+        <v>0.8174071701050893</v>
       </c>
       <c r="L10">
-        <v>1.003969824468227</v>
+        <v>0.8364824721124438</v>
       </c>
       <c r="M10">
-        <v>0.9959100850204848</v>
+        <v>0.747222000851561</v>
       </c>
       <c r="N10">
-        <v>1.004391033268429</v>
+        <v>0.937775371837076</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9947166684116088</v>
+        <v>0.7519923966843134</v>
       </c>
       <c r="D11">
-        <v>0.9977494253751157</v>
+        <v>0.7697815502640761</v>
       </c>
       <c r="E11">
-        <v>0.9987801794014731</v>
+        <v>0.7923835285410413</v>
       </c>
       <c r="F11">
-        <v>0.9899912410929472</v>
+        <v>0.684311970981734</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.001588398655513</v>
+        <v>0.7971422160443725</v>
       </c>
       <c r="K11">
-        <v>1.001464374056901</v>
+        <v>0.7909047798934461</v>
       </c>
       <c r="L11">
-        <v>1.002490978865181</v>
+        <v>0.8126734278563031</v>
       </c>
       <c r="M11">
-        <v>0.9937377287925286</v>
+        <v>0.7093227569701439</v>
       </c>
       <c r="N11">
-        <v>1.003814516701121</v>
+        <v>0.9284392232645924</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9940292131350527</v>
+        <v>0.7371817649060873</v>
       </c>
       <c r="D12">
-        <v>0.9970855071619035</v>
+        <v>0.7560000694505177</v>
       </c>
       <c r="E12">
-        <v>0.9981789596307084</v>
+        <v>0.7800538854051513</v>
       </c>
       <c r="F12">
-        <v>0.9891300330018744</v>
+        <v>0.6637775857013739</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.000995865763107</v>
+        <v>0.7845445183736807</v>
       </c>
       <c r="K12">
-        <v>1.000850138015531</v>
+        <v>0.7779837341016225</v>
       </c>
       <c r="L12">
-        <v>1.00193912301098</v>
+        <v>0.8010914884493883</v>
       </c>
       <c r="M12">
-        <v>0.9929274990880825</v>
+        <v>0.6903405142673095</v>
       </c>
       <c r="N12">
-        <v>1.003599131600842</v>
+        <v>0.923930759613395</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9941768037503463</v>
+        <v>0.7406265048553639</v>
       </c>
       <c r="D13">
-        <v>0.9972280430177404</v>
+        <v>0.7592035590412406</v>
       </c>
       <c r="E13">
-        <v>0.9983080390005992</v>
+        <v>0.7829171566109687</v>
       </c>
       <c r="F13">
-        <v>0.9893149195511527</v>
+        <v>0.6685967242159888</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.001123089153445</v>
+        <v>0.7874747610404906</v>
       </c>
       <c r="K13">
-        <v>1.000982017172393</v>
+        <v>0.7809886458982777</v>
       </c>
       <c r="L13">
-        <v>1.002057614631271</v>
+        <v>0.8037832638252527</v>
       </c>
       <c r="M13">
-        <v>0.9931014485550306</v>
+        <v>0.6947900572922258</v>
       </c>
       <c r="N13">
-        <v>1.00364538914935</v>
+        <v>0.9249764885338182</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9946599011945081</v>
+        <v>0.7508732298819176</v>
       </c>
       <c r="D14">
-        <v>0.9976946010513851</v>
+        <v>0.7687394070675275</v>
       </c>
       <c r="E14">
-        <v>0.9987305344040769</v>
+        <v>0.7914501248029647</v>
       </c>
       <c r="F14">
-        <v>0.989920122794787</v>
+        <v>0.6827763674311478</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.001539475043138</v>
+        <v>0.7961903236861659</v>
       </c>
       <c r="K14">
-        <v>1.001413656617626</v>
+        <v>0.7899282483592309</v>
       </c>
       <c r="L14">
-        <v>1.00244541475185</v>
+        <v>0.811797450506371</v>
       </c>
       <c r="M14">
-        <v>0.9936708234728931</v>
+        <v>0.7079012522595785</v>
       </c>
       <c r="N14">
-        <v>1.003796738418048</v>
+        <v>0.9280974308681621</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9949571772351183</v>
+        <v>0.7565717565130992</v>
       </c>
       <c r="D15">
-        <v>0.9979817040314933</v>
+        <v>0.774047032200867</v>
       </c>
       <c r="E15">
-        <v>0.998990510600829</v>
+        <v>0.7962056444555817</v>
       </c>
       <c r="F15">
-        <v>0.990292558607223</v>
+        <v>0.690570299926948</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.001795665392203</v>
+        <v>0.8010371038829278</v>
       </c>
       <c r="K15">
-        <v>1.001679244150521</v>
+        <v>0.794900821139726</v>
       </c>
       <c r="L15">
-        <v>1.002684011100384</v>
+        <v>0.8162590411490377</v>
       </c>
       <c r="M15">
-        <v>0.9940211901285849</v>
+        <v>0.7151191361554151</v>
       </c>
       <c r="N15">
-        <v>1.003889824213849</v>
+        <v>0.929839594307774</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9966817889603924</v>
+        <v>0.7840687453313818</v>
       </c>
       <c r="D16">
-        <v>0.999647366016141</v>
+        <v>0.7997030214247345</v>
       </c>
       <c r="E16">
-        <v>1.000498605863378</v>
+        <v>0.8192482909419331</v>
       </c>
       <c r="F16">
-        <v>0.9924535359026349</v>
+        <v>0.7274161996684286</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.003281398206677</v>
+        <v>0.8244255341825356</v>
       </c>
       <c r="K16">
-        <v>1.003219658601092</v>
+        <v>0.8189074220332773</v>
       </c>
       <c r="L16">
-        <v>1.004067618246911</v>
+        <v>0.8378321177394306</v>
       </c>
       <c r="M16">
-        <v>0.9960537990814301</v>
+        <v>0.7493330676371971</v>
       </c>
       <c r="N16">
-        <v>1.004429122571202</v>
+        <v>0.9383071027146762</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9977586915948781</v>
+        <v>0.7982093315923102</v>
       </c>
       <c r="D17">
-        <v>1.000687517331306</v>
+        <v>0.8129258725704332</v>
       </c>
       <c r="E17">
-        <v>1.001440195758832</v>
+        <v>0.8311562755767276</v>
       </c>
       <c r="F17">
-        <v>0.9938032226934108</v>
+        <v>0.7459611660130185</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.004208674963362</v>
+        <v>0.8364551402882856</v>
       </c>
       <c r="K17">
-        <v>1.004181225239359</v>
+        <v>0.8312617897050425</v>
       </c>
       <c r="L17">
-        <v>1.004931074105202</v>
+        <v>0.848952798131027</v>
       </c>
       <c r="M17">
-        <v>0.9973230313618571</v>
+        <v>0.7666004816371338</v>
       </c>
       <c r="N17">
-        <v>1.004765234606173</v>
+        <v>0.9426976353724964</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9983850985791192</v>
+        <v>0.805730887851137</v>
       </c>
       <c r="D18">
-        <v>1.0012925677505</v>
+        <v>0.8199671568914807</v>
       </c>
       <c r="E18">
-        <v>1.001987853182728</v>
+        <v>0.8375052496932657</v>
       </c>
       <c r="F18">
-        <v>0.9945884141047743</v>
+        <v>0.7557342012921761</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.00474788172371</v>
+        <v>0.8428543422637994</v>
       </c>
       <c r="K18">
-        <v>1.004740429677373</v>
+        <v>0.8378355859572376</v>
       </c>
       <c r="L18">
-        <v>1.005433139341394</v>
+        <v>0.8548745358827854</v>
       </c>
       <c r="M18">
-        <v>0.9980613169681083</v>
+        <v>0.7757104817171161</v>
       </c>
       <c r="N18">
-        <v>1.004960509703678</v>
+        <v>0.945041929856407</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9985983965555357</v>
+        <v>0.8081938951064707</v>
       </c>
       <c r="D19">
-        <v>1.001498597077151</v>
+        <v>0.8222740683221494</v>
       </c>
       <c r="E19">
-        <v>1.002174328996302</v>
+        <v>0.8395864600297559</v>
       </c>
       <c r="F19">
-        <v>0.9948557992536934</v>
+        <v>0.7589219421920785</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.00493145885666</v>
+        <v>0.8449498807445838</v>
       </c>
       <c r="K19">
-        <v>1.004930825056835</v>
+        <v>0.8399885757033018</v>
       </c>
       <c r="L19">
-        <v>1.005604066228444</v>
+        <v>0.856814577295536</v>
       </c>
       <c r="M19">
-        <v>0.9983127119490669</v>
+        <v>0.7786833180192579</v>
       </c>
       <c r="N19">
-        <v>1.005026963285529</v>
+        <v>0.9458108527275315</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9976433300527123</v>
+        <v>0.7967730429091994</v>
       </c>
       <c r="D20">
-        <v>1.000576090560031</v>
+        <v>0.8115819131805977</v>
       </c>
       <c r="E20">
-        <v>1.001339333670625</v>
+        <v>0.8299450580168485</v>
       </c>
       <c r="F20">
-        <v>0.993658627964647</v>
+        <v>0.7440880915939981</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.004109359115974</v>
+        <v>0.8352332076957669</v>
       </c>
       <c r="K20">
-        <v>1.004078230742143</v>
+        <v>0.8300066629667496</v>
       </c>
       <c r="L20">
-        <v>1.004838596883237</v>
+        <v>0.8478224995384646</v>
       </c>
       <c r="M20">
-        <v>0.9971870663168665</v>
+        <v>0.7648552420690945</v>
       </c>
       <c r="N20">
-        <v>1.004729253196774</v>
+        <v>0.9422506585218822</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9945177196130314</v>
+        <v>0.7479988399086677</v>
       </c>
       <c r="D21">
-        <v>0.9975572862761313</v>
+        <v>0.7660634014145525</v>
       </c>
       <c r="E21">
-        <v>0.9986061904447127</v>
+        <v>0.7890541036005176</v>
       </c>
       <c r="F21">
-        <v>0.9897419995063174</v>
+        <v>0.6788209967640521</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.001416934683185</v>
+        <v>0.7937455271126413</v>
       </c>
       <c r="K21">
-        <v>1.001286624685652</v>
+        <v>0.787420320462945</v>
       </c>
       <c r="L21">
-        <v>1.002331288293003</v>
+        <v>0.8095482382183676</v>
       </c>
       <c r="M21">
-        <v>0.9935032494993649</v>
+        <v>0.7042411823380543</v>
       </c>
       <c r="N21">
-        <v>1.003752204366218</v>
+        <v>0.9272204143238055</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9925361831080421</v>
+        <v>0.7479988399086677</v>
       </c>
       <c r="D22">
-        <v>0.9956436591728185</v>
+        <v>0.7660634014145525</v>
       </c>
       <c r="E22">
-        <v>0.9968731071297999</v>
+        <v>0.7890541036005176</v>
       </c>
       <c r="F22">
-        <v>0.9872599324566337</v>
+        <v>0.6788209967640521</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9997085132618067</v>
+        <v>0.7937455271126413</v>
       </c>
       <c r="K22">
-        <v>0.9995158005207417</v>
+        <v>0.787420320462945</v>
       </c>
       <c r="L22">
-        <v>1.000740064360187</v>
+        <v>0.8095482382183676</v>
       </c>
       <c r="M22">
-        <v>0.9911678100289042</v>
+        <v>0.7042411823380543</v>
       </c>
       <c r="N22">
-        <v>1.003130696647749</v>
+        <v>0.9272204143238055</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9935882184135094</v>
+        <v>0.7479988399086677</v>
       </c>
       <c r="D23">
-        <v>0.9966596209353727</v>
+        <v>0.7660634014145525</v>
       </c>
       <c r="E23">
-        <v>0.9977932668817237</v>
+        <v>0.7890541036005176</v>
       </c>
       <c r="F23">
-        <v>0.9885776228259336</v>
+        <v>0.6788209967640521</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.000615689345495</v>
+        <v>0.7937455271126413</v>
       </c>
       <c r="K23">
-        <v>1.000456062375759</v>
+        <v>0.787420320462945</v>
       </c>
       <c r="L23">
-        <v>1.001585032801825</v>
+        <v>0.8095482382183676</v>
       </c>
       <c r="M23">
-        <v>0.9924077441135356</v>
+        <v>0.7042411823380543</v>
       </c>
       <c r="N23">
-        <v>1.003460863377317</v>
+        <v>0.9272204143238055</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9976954623140011</v>
+        <v>0.7479988399086677</v>
       </c>
       <c r="D24">
-        <v>1.000626444621296</v>
+        <v>0.7660634014145525</v>
       </c>
       <c r="E24">
-        <v>1.001384913709678</v>
+        <v>0.7890541036005176</v>
       </c>
       <c r="F24">
-        <v>0.993723970449555</v>
+        <v>0.6788209967640521</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.00415424079048</v>
+        <v>0.7937455271126413</v>
       </c>
       <c r="K24">
-        <v>1.004124774649397</v>
+        <v>0.787420320462945</v>
       </c>
       <c r="L24">
-        <v>1.004880388217769</v>
+        <v>0.8095482382183676</v>
       </c>
       <c r="M24">
-        <v>0.9972485093517661</v>
+        <v>0.7042411823380543</v>
       </c>
       <c r="N24">
-        <v>1.004745514034718</v>
+        <v>0.9272204143238055</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.002394095298738</v>
+        <v>0.7479988399086677</v>
       </c>
       <c r="D25">
-        <v>1.005165242897434</v>
+        <v>0.7660634014145525</v>
       </c>
       <c r="E25">
-        <v>1.00549208066899</v>
+        <v>0.7890541036005176</v>
       </c>
       <c r="F25">
-        <v>0.9996157571292116</v>
+        <v>0.6788209967640521</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.008195799769047</v>
+        <v>0.7937455271126413</v>
       </c>
       <c r="K25">
-        <v>1.008317266850159</v>
+        <v>0.787420320462945</v>
       </c>
       <c r="L25">
-        <v>1.008643008013573</v>
+        <v>0.8095482382183676</v>
       </c>
       <c r="M25">
-        <v>1.002786521031373</v>
+        <v>0.7042411823380543</v>
       </c>
       <c r="N25">
-        <v>1.006206052205763</v>
+        <v>0.9272204143238055</v>
       </c>
     </row>
   </sheetData>
